--- a/biology/Médecine/Paul-Claude_Racamier/Paul-Claude_Racamier.xlsx
+++ b/biology/Médecine/Paul-Claude_Racamier/Paul-Claude_Racamier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Claude Racamier, né le 20 mai 1924 à Pont-de-Roide (Doubs) et mort le 18 août 1996 à Besançon, est un psychiatre et psychanalyste français.
 Il est à l'origine de l'identification de la perversion narcissique.
@@ -512,9 +524,11 @@
           <t>Années de formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît dans le Doubs, son père est un ingénieur des usines Peugeot d'origine catholique et drômoise, sa mère est d'une famille protestante du pays de Montbéliard. C'est elle qui l'éduque jusqu'à l'âge de neuf ans. Il continue ses études secondaires à Montbéliard, puis étudie la médecine à Besançon et Paris. Il devient médecin des hôpitaux psychiatriques en 1952[1]. C'est une rencontre avec Francis Pasche qui l'oriente vers la psychanalyse, il a été en analyse chez Marc Schlumberger et chez Évelyne Kestemberg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît dans le Doubs, son père est un ingénieur des usines Peugeot d'origine catholique et drômoise, sa mère est d'une famille protestante du pays de Montbéliard. C'est elle qui l'éduque jusqu'à l'âge de neuf ans. Il continue ses études secondaires à Montbéliard, puis étudie la médecine à Besançon et Paris. Il devient médecin des hôpitaux psychiatriques en 1952. C'est une rencontre avec Francis Pasche qui l'oriente vers la psychanalyse, il a été en analyse chez Marc Schlumberger et chez Évelyne Kestemberg.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est psychiatre à l'hôpital psychiatrique de Prémontré, en Picardie (1952-1962) puis à la clinique des Rives, à Prangins (Suisse) (1962-1966). Il est le fondateur, en 1967 d'une institution située près de Besançon, La Velotte, qui sera « l’œuvre de sa vie »[2]. Il s'agit d'une maison de cure, qui accueille une douzaine de patients et autant de soignants, et qui offre un lieu de soins et un lieu de vie sur deux sites distincts. Les patients, qui ont de 18 à 30 ans, peuvent ainsi acquérir une certaine forme d'autonomie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est psychiatre à l'hôpital psychiatrique de Prémontré, en Picardie (1952-1962) puis à la clinique des Rives, à Prangins (Suisse) (1962-1966). Il est le fondateur, en 1967 d'une institution située près de Besançon, La Velotte, qui sera « l’œuvre de sa vie ». Il s'agit d'une maison de cure, qui accueille une douzaine de patients et autant de soignants, et qui offre un lieu de soins et un lieu de vie sur deux sites distincts. Les patients, qui ont de 18 à 30 ans, peuvent ainsi acquérir une certaine forme d'autonomie.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Parcours de recherche et théorisations originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paul-Claude Racamier devient membre adhérent (1958) puis membre titulaire (1962) de la Société psychanalytique de Paris. Il enseigne à l'université de Lausanne (1962-1967) et à Besançon, aux facultés de médecine et de sciences humaines. 
-Son ouvrage Le Psychanalyste sans divan (1970), est issu d'un dialogue avec ses collègues, Serge Lebovici et René Diatkine, notamment) de l'association de santé mentale du XIIIe arrondissement de Paris (ASM 13). Il y souligne le lien entre les soins aux patients et la nécessité de soigner l'institution[3].
+Son ouvrage Le Psychanalyste sans divan (1970), est issu d'un dialogue avec ses collègues, Serge Lebovici et René Diatkine, notamment) de l'association de santé mentale du XIIIe arrondissement de Paris (ASM 13). Il y souligne le lien entre les soins aux patients et la nécessité de soigner l'institution.
 Dans Les Schizophrènes, il s'intéresse à la prise en charge de cette pathologie, et développe les notions de maternage et de maternalité à prendre en compte dans les soins.
-En 1989, il définit la notion d'« antœdipe », notion qui lui permet de distinguer l'« anti »-œdipien, ce qui fait obstacle à la structuration œdipienne, et l'« anté »-œdipien, « ce à quoi le psychisme est alors renvoyé »[3]. Il développe à nouveau cette théorisation originale dans l'ouvrage Le Génie des origines (1992).
-Il théorise la notion d'incestuel, désignant ainsi un type de relation marqué par l'inceste, sans pour autant qu'il y ait de passage à l'acte sur le plan sexuel[4].</t>
+En 1989, il définit la notion d'« antœdipe », notion qui lui permet de distinguer l'« anti »-œdipien, ce qui fait obstacle à la structuration œdipienne, et l'« anté »-œdipien, « ce à quoi le psychisme est alors renvoyé ». Il développe à nouveau cette théorisation originale dans l'ouvrage Le Génie des origines (1992).
+Il théorise la notion d'incestuel, désignant ainsi un type de relation marqué par l'inceste, sans pour autant qu'il y ait de passage à l'acte sur le plan sexuel.</t>
         </is>
       </c>
     </row>
